--- a/Team Deliverable 1/Gantt chart for pres.xlsx
+++ b/Team Deliverable 1/Gantt chart for pres.xlsx
@@ -347,8 +347,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5289112320021634E-2"/>
-                  <c:y val="-5.2601919008275183E-2"/>
+                  <c:x val="0.17090224002588453"/>
+                  <c:y val="-5.5340894631392114E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -382,7 +382,7 @@
                   <c:v>42418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42424</c:v>
+                  <c:v>42462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +522,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.2876840831878536"/>
+                  <c:x val="-0.39961293936693981"/>
                   <c:y val="-5.2602134675647054E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1086,11 +1086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156756224"/>
-        <c:axId val="156755648"/>
+        <c:axId val="791939328"/>
+        <c:axId val="791939904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156756224"/>
+        <c:axId val="791939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,12 +1110,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156755648"/>
+        <c:crossAx val="791939904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156755648"/>
+        <c:axId val="791939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156756224"/>
+        <c:crossAx val="791939328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1480,7 +1480,7 @@
   <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>42424</v>
+        <v>42462</v>
       </c>
       <c r="F5" s="10">
         <v>5</v>

--- a/Team Deliverable 1/Gantt chart for pres.xlsx
+++ b/Team Deliverable 1/Gantt chart for pres.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Task Name</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Design, Development, &amp; Testing in four 2-week sprints - complete</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -335,7 +338,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -347,8 +350,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17090224002588453"/>
-                  <c:y val="-5.5340894631392114E-2"/>
+                  <c:x val="1.297522377320136E-2"/>
+                  <c:y val="-6.0818845877626017E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -379,7 +382,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42418</c:v>
+                  <c:v>42432</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42462</c:v>
@@ -390,91 +393,6 @@
           <c:yVal>
             <c:numRef>
               <c:f>(Sheet1!$D$5,Sheet1!$F$5)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>   Project Topic Presentation Due</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.7960072148295168E-2"/>
-                  <c:y val="4.9020762297892713E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$C$6,Sheet1!$E$6)</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>42421</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42421</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$D$6,Sheet1!$F$6)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -491,10 +409,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -506,7 +424,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -545,100 +463,15 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$7,Sheet1!$E$7)</c:f>
+              <c:f>(Sheet1!$C$8,Sheet1!$E$8)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>42425</c:v>
+                  <c:v>42440</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$D$7,Sheet1!$F$7)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>   Project Progress Report Due</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3176384230719991E-2"/>
-                  <c:y val="3.8064859805424844E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$C$8,Sheet1!$E$8)</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>42435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,10 +495,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,7 +510,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -716,7 +549,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$9,Sheet1!$E$9)</c:f>
+              <c:f>(Sheet1!$C$11,Sheet1!$E$11)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -731,92 +564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$9,Sheet1!$F$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>   Project Progress Report Due</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10157564826015883"/>
-                  <c:y val="3.5325884182307844E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Sheet1!$C$10,Sheet1!$E$10)</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>42463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42463</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Sheet1!$D$10,Sheet1!$F$10)</c:f>
+              <c:f>(Sheet1!$D$11,Sheet1!$F$11)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -833,10 +581,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -848,7 +596,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -887,7 +635,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$11,Sheet1!$E$11)</c:f>
+              <c:f>(Sheet1!$C$13,Sheet1!$E$13)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -902,7 +650,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$11,Sheet1!$F$11)</c:f>
+              <c:f>(Sheet1!$D$13,Sheet1!$F$13)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -919,10 +667,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,7 +682,7 @@
           <c:spPr>
             <a:ln w="50800">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -957,7 +705,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$12,Sheet1!$E$12)</c:f>
+              <c:f>(Sheet1!$C$14,Sheet1!$E$14)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -972,7 +720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$12,Sheet1!$F$12)</c:f>
+              <c:f>(Sheet1!$D$14,Sheet1!$F$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -989,10 +737,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1047,7 +795,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$C$13,Sheet1!$E$13)</c:f>
+              <c:f>(Sheet1!$C$15,Sheet1!$E$15)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1062,7 +810,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$D$13,Sheet1!$F$13)</c:f>
+              <c:f>(Sheet1!$D$15,Sheet1!$F$15)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1071,6 +819,379 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   Analysis/Software Requirements</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$6,Sheet1!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$7,Sheet1!$F$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   Project Topic Presentation Due</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7960072148295168E-2"/>
+                  <c:y val="4.9020762297892713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$7,Sheet1!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$7,Sheet1!$F$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   Design, Development, &amp; Testing in four 2-week sprints - complete</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$9,Sheet1!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   Project Progress Report Due</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3176384230719991E-2"/>
+                  <c:y val="3.8064859805424844E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$10,Sheet1!$E$10)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$10,Sheet1!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>   Project Progress Report Due</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10157564826015883"/>
+                  <c:y val="3.5325884182307844E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$12,Sheet1!$E$12)</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$D$12,Sheet1!$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,11 +1207,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="791939328"/>
-        <c:axId val="791939904"/>
+        <c:axId val="7966080"/>
+        <c:axId val="163684352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="791939328"/>
+        <c:axId val="7966080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,6 +1221,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="5400000" vert="horz"/>
           <a:lstStyle/>
@@ -1110,12 +1234,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791939904"/>
+        <c:crossAx val="163684352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="791939904"/>
+        <c:axId val="163684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="791939328"/>
+        <c:crossAx val="7966080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1161,13 +1285,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1477,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F13"/>
+  <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>42418</v>
+        <v>42432</v>
       </c>
       <c r="D5" s="9">
         <v>5</v>
@@ -1553,83 +1677,83 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6">
-        <v>42421</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42418</v>
+      </c>
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>42421</v>
+      <c r="E6" s="5">
+        <v>42432</v>
       </c>
       <c r="F6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>42421</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42421</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
-        <v>42425</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42474</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>42435</v>
+      <c r="C8" s="5">
+        <v>42440</v>
       </c>
       <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E8" s="6">
-        <v>42435</v>
+      <c r="E8" s="5">
+        <v>42474</v>
       </c>
       <c r="F8" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
-        <v>42452</v>
+        <v>42425</v>
       </c>
       <c r="D9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
-        <v>42478</v>
+        <v>42440</v>
       </c>
       <c r="F9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1640,75 +1764,115 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>42463</v>
+        <v>42435</v>
       </c>
       <c r="D10" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
-        <v>42463</v>
+        <v>42435</v>
       </c>
       <c r="F10" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
-        <v>42479</v>
+        <v>42452</v>
       </c>
       <c r="D11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>42483</v>
+        <v>42478</v>
       </c>
       <c r="F11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>42483</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42463</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42486</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42463</v>
       </c>
       <c r="F12" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42479</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42483</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42483</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42486</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="7">
         <v>42490</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E15" s="7">
         <v>42490</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
     </row>
